--- a/eval/对比结果.xlsx
+++ b/eval/对比结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509DF99A-C678-4900-8D06-8C0584FA6A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA19A7D4-D7C7-4513-857D-36CAE108EBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="4200" windowWidth="23040" windowHeight="12120" xr2:uid="{C34493FC-BE9F-49C2-BA2E-76C7B8EF5F42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{C34493FC-BE9F-49C2-BA2E-76C7B8EF5F42}"/>
   </bookViews>
   <sheets>
     <sheet name="不同Policy结果" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,9 +224,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -460,7 +457,7 @@
                   <c:v>240388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>362970</c:v>
+                  <c:v>258897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,19 +1502,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1119110</c:v>
+                  <c:v>1118483</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>975884</c:v>
+                  <c:v>994736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>989376</c:v>
+                  <c:v>864948</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>810273</c:v>
+                  <c:v>826136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>754334</c:v>
+                  <c:v>849762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,7 +2032,7 @@
                   <c:v>0.69569599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54405400000000004</c:v>
+                  <c:v>0.67691199999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,7 +2544,7 @@
                   <c:v>139864</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>215685</c:v>
+                  <c:v>149256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3043,22 +3040,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>471704</c:v>
+                  <c:v>379039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1118452</c:v>
+                  <c:v>1054548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>810273</c:v>
+                  <c:v>826136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>811175</c:v>
+                  <c:v>835917</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>824523</c:v>
+                  <c:v>849005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>464772</c:v>
+                  <c:v>600393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3561,22 +3558,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>108</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61241</c:v>
+                  <c:v>36314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7177</c:v>
+                  <c:v>7958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7098</c:v>
+                  <c:v>7912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6872</c:v>
+                  <c:v>8221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4047</c:v>
+                  <c:v>2543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4088,7 +4085,7 @@
                   <c:v>465928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>618046</c:v>
+                  <c:v>512353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4594,7 +4591,7 @@
                   <c:v>0.38162200000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18595600000000001</c:v>
+                  <c:v>0.32886399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5080,22 +5077,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>699435</c:v>
+                  <c:v>724643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1223019</c:v>
+                  <c:v>1224811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1119110</c:v>
+                  <c:v>1118483</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1185444</c:v>
+                  <c:v>1169348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1206133</c:v>
+                  <c:v>1205363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>696108</c:v>
+                  <c:v>865453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11899,15 +11896,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11971,15 +11968,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>68792</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12006,16 +12003,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12042,16 +12039,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12079,15 +12076,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>144991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>144991</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12114,16 +12111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>103715</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>64558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>829733</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>64558</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12150,16 +12147,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>55034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>227541</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>55034</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14029,26 +14026,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2D5434-3EF7-482C-9BD4-D23A73D587F6}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="12.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="6.88671875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="11.77734375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="5"/>
-    <col min="12" max="12" width="11.5546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="20.44140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" customWidth="1"/>
+    <col min="7" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -14102,7 +14097,7 @@
       <c r="O2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14142,19 +14137,19 @@
         <v>145315</v>
       </c>
       <c r="L3" s="4">
-        <v>197600</v>
+        <v>172983</v>
       </c>
       <c r="M3" s="4">
-        <v>271286</v>
+        <v>203327</v>
       </c>
       <c r="N3" s="4">
-        <v>2818</v>
+        <v>2729</v>
       </c>
       <c r="O3" s="4">
-        <v>471704</v>
-      </c>
-      <c r="P3" s="6">
-        <v>108</v>
+        <v>379039</v>
+      </c>
+      <c r="P3" s="5">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -14193,19 +14188,19 @@
         <v>144488</v>
       </c>
       <c r="L4" s="4">
-        <v>534781</v>
+        <v>499597</v>
       </c>
       <c r="M4" s="4">
-        <v>576630</v>
+        <v>552414</v>
       </c>
       <c r="N4" s="4">
-        <v>7041</v>
+        <v>2537</v>
       </c>
       <c r="O4" s="4">
-        <v>1118452</v>
-      </c>
-      <c r="P4" s="6">
-        <v>61241</v>
+        <v>1054548</v>
+      </c>
+      <c r="P4" s="5">
+        <v>36314</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -14244,19 +14239,19 @@
         <v>126899</v>
       </c>
       <c r="L5" s="4">
-        <v>406168</v>
+        <v>414620</v>
       </c>
       <c r="M5" s="4">
-        <v>401279</v>
+        <v>408767</v>
       </c>
       <c r="N5" s="4">
-        <v>2826</v>
+        <v>2749</v>
       </c>
       <c r="O5" s="4">
-        <v>810273</v>
-      </c>
-      <c r="P5" s="6">
-        <v>7177</v>
+        <v>826136</v>
+      </c>
+      <c r="P5" s="5">
+        <v>7958</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -14295,19 +14290,19 @@
         <v>132126</v>
       </c>
       <c r="L6" s="4">
-        <v>404681</v>
+        <v>416315</v>
       </c>
       <c r="M6" s="4">
-        <v>403876</v>
+        <v>416971</v>
       </c>
       <c r="N6" s="4">
-        <v>2618</v>
+        <v>2631</v>
       </c>
       <c r="O6" s="4">
-        <v>811175</v>
-      </c>
-      <c r="P6" s="6">
-        <v>7098</v>
+        <v>835917</v>
+      </c>
+      <c r="P6" s="5">
+        <v>7912</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -14346,19 +14341,19 @@
         <v>139864</v>
       </c>
       <c r="L7" s="4">
-        <v>410036</v>
+        <v>421166</v>
       </c>
       <c r="M7" s="4">
-        <v>411900</v>
+        <v>425207</v>
       </c>
       <c r="N7" s="4">
-        <v>2587</v>
+        <v>2632</v>
       </c>
       <c r="O7" s="4">
-        <v>824523</v>
-      </c>
-      <c r="P7" s="6">
-        <v>6872</v>
+        <v>849005</v>
+      </c>
+      <c r="P7" s="5">
+        <v>8221</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -14366,50 +14361,50 @@
         <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>227973</v>
+        <v>161544</v>
       </c>
       <c r="C8" s="1">
-        <v>134997</v>
+        <v>97353</v>
       </c>
       <c r="D8" s="1">
-        <v>362970</v>
+        <v>258897</v>
       </c>
       <c r="E8" s="2">
-        <v>227973</v>
+        <v>161544</v>
       </c>
       <c r="F8" s="2">
-        <v>272027</v>
+        <v>338456</v>
       </c>
       <c r="G8" s="2">
         <v>500000</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0.54405400000000004</v>
+        <v>0.67691199999999996</v>
       </c>
       <c r="I8" s="3">
-        <v>126942</v>
+        <v>89677</v>
       </c>
       <c r="J8" s="3">
-        <v>88743</v>
+        <v>59579</v>
       </c>
       <c r="K8" s="3">
-        <v>215685</v>
+        <v>149256</v>
       </c>
       <c r="L8" s="4">
-        <v>201948</v>
+        <v>212712</v>
       </c>
       <c r="M8" s="4">
-        <v>260167</v>
+        <v>385172</v>
       </c>
       <c r="N8" s="4">
-        <v>2657</v>
+        <v>2509</v>
       </c>
       <c r="O8" s="4">
-        <v>464772</v>
-      </c>
-      <c r="P8" s="6">
-        <v>4047</v>
+        <v>600393</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2543</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -14463,7 +14458,7 @@
       <c r="O11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14471,306 +14466,306 @@
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="1">
         <v>328907</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="1">
         <v>161542</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="1">
         <v>490449</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <v>328907</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <v>171093</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="2">
         <v>500000</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="2">
         <f>F12/G12</f>
         <v>0.34218599999999999</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>160552</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>167331</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>327883</v>
       </c>
-      <c r="L12" s="5">
-        <v>322500</v>
-      </c>
-      <c r="M12" s="5">
-        <v>376679</v>
-      </c>
-      <c r="N12" s="5">
-        <v>256</v>
-      </c>
-      <c r="O12" s="5">
-        <v>699435</v>
+      <c r="L12" s="4">
+        <v>350148</v>
+      </c>
+      <c r="M12" s="4">
+        <v>374223</v>
+      </c>
+      <c r="N12" s="4">
+        <v>272</v>
+      </c>
+      <c r="O12" s="4">
+        <v>724643</v>
       </c>
       <c r="P12" s="5">
-        <v>243</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="1">
         <v>330435</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="1">
         <v>172955</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="1">
         <v>503390</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>330435</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="2">
         <v>169565</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>500000</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="2">
         <f t="shared" ref="H13:H17" si="1">F13/G13</f>
         <v>0.33912999999999999</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>172386</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <v>157025</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <v>329411</v>
       </c>
-      <c r="L13" s="5">
-        <v>607824</v>
-      </c>
-      <c r="M13" s="5">
-        <v>614987</v>
-      </c>
-      <c r="N13" s="5">
-        <v>208</v>
-      </c>
-      <c r="O13" s="5">
-        <v>1223019</v>
+      <c r="L13" s="4">
+        <v>594194</v>
+      </c>
+      <c r="M13" s="4">
+        <v>630379</v>
+      </c>
+      <c r="N13" s="4">
+        <v>238</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1224811</v>
       </c>
       <c r="P13" s="5">
-        <v>5089</v>
+        <v>17892</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="1">
         <v>282141</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="1">
         <v>138715</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="1">
         <v>420856</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="2">
         <v>282141</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="2">
         <v>217859</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="2">
         <v>500000</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>0.43571799999999999</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>137691</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <v>143426</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <v>281117</v>
       </c>
-      <c r="L14" s="5">
-        <v>541666</v>
-      </c>
-      <c r="M14" s="5">
-        <v>577207</v>
-      </c>
-      <c r="N14" s="5">
-        <v>237</v>
-      </c>
-      <c r="O14" s="5">
-        <v>1119110</v>
+      <c r="L14" s="4">
+        <v>554569</v>
+      </c>
+      <c r="M14" s="4">
+        <v>563648</v>
+      </c>
+      <c r="N14" s="4">
+        <v>266</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1118483</v>
       </c>
       <c r="P14" s="5">
-        <v>9317</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="1">
         <v>291543</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="1">
         <v>145598</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="1">
         <v>437141</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2">
         <v>291543</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="2">
         <v>208457</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <v>500000</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="2">
         <f t="shared" si="1"/>
         <v>0.41691400000000001</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <v>144745</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="3">
         <v>145774</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="3">
         <v>290519</v>
       </c>
-      <c r="L15" s="5">
-        <v>591643</v>
-      </c>
-      <c r="M15" s="5">
-        <v>593582</v>
-      </c>
-      <c r="N15" s="5">
-        <v>219</v>
-      </c>
-      <c r="O15" s="5">
-        <v>1185444</v>
+      <c r="L15" s="4">
+        <v>585608</v>
+      </c>
+      <c r="M15" s="4">
+        <v>583483</v>
+      </c>
+      <c r="N15" s="4">
+        <v>257</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1169348</v>
       </c>
       <c r="P15" s="5">
-        <v>4191</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="1">
         <v>309189</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="1">
         <v>156739</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="1">
         <v>465928</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>309189</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>190811</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <v>500000</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>0.38162200000000002</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <v>156049</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="3">
         <v>152116</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="3">
         <v>308165</v>
       </c>
-      <c r="L16" s="5">
-        <v>590652</v>
-      </c>
-      <c r="M16" s="5">
-        <v>615268</v>
-      </c>
-      <c r="N16" s="5">
-        <v>213</v>
-      </c>
-      <c r="O16" s="5">
-        <v>1206133</v>
+      <c r="L16" s="4">
+        <v>602590</v>
+      </c>
+      <c r="M16" s="4">
+        <v>602535</v>
+      </c>
+      <c r="N16" s="4">
+        <v>238</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1205363</v>
       </c>
       <c r="P16" s="5">
-        <v>2149</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="5">
-        <v>407022</v>
-      </c>
-      <c r="C17" s="5">
-        <v>211024</v>
-      </c>
-      <c r="D17" s="5">
-        <v>618046</v>
-      </c>
-      <c r="E17" s="5">
-        <v>407022</v>
-      </c>
-      <c r="F17" s="5">
-        <v>92978</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="B17" s="1">
+        <v>335568</v>
+      </c>
+      <c r="C17" s="1">
+        <v>176785</v>
+      </c>
+      <c r="D17" s="1">
+        <v>512353</v>
+      </c>
+      <c r="E17" s="2">
+        <v>335568</v>
+      </c>
+      <c r="F17" s="2">
+        <v>164432</v>
+      </c>
+      <c r="G17" s="2">
         <v>500000</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="2">
         <f t="shared" si="1"/>
-        <v>0.18595600000000001</v>
-      </c>
-      <c r="I17" s="5">
-        <v>210455</v>
-      </c>
-      <c r="J17" s="5">
-        <v>195543</v>
-      </c>
-      <c r="K17" s="5">
-        <v>405998</v>
-      </c>
-      <c r="L17" s="5">
-        <v>309893</v>
-      </c>
-      <c r="M17" s="5">
-        <v>386012</v>
-      </c>
-      <c r="N17" s="5">
-        <v>203</v>
-      </c>
-      <c r="O17" s="5">
-        <v>696108</v>
+        <v>0.32886399999999999</v>
+      </c>
+      <c r="I17" s="3">
+        <v>176231</v>
+      </c>
+      <c r="J17" s="3">
+        <v>158313</v>
+      </c>
+      <c r="K17" s="3">
+        <v>334544</v>
+      </c>
+      <c r="L17" s="4">
+        <v>395395</v>
+      </c>
+      <c r="M17" s="4">
+        <v>469830</v>
+      </c>
+      <c r="N17" s="4">
+        <v>228</v>
+      </c>
+      <c r="O17" s="4">
+        <v>865453</v>
       </c>
       <c r="P17" s="5">
-        <v>3880</v>
+        <v>1625</v>
       </c>
     </row>
   </sheetData>
@@ -14785,26 +14780,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A31E3C-BE53-4B27-8171-C5E94E5C229D}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="11.44140625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="11.77734375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="5"/>
-    <col min="12" max="12" width="11.5546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12" style="5" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -14853,7 +14846,7 @@
       <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14893,19 +14886,19 @@
         <v>281117</v>
       </c>
       <c r="L2" s="4">
-        <v>541666</v>
+        <v>554569</v>
       </c>
       <c r="M2" s="4">
-        <v>577207</v>
+        <v>563648</v>
       </c>
       <c r="N2" s="4">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="O2" s="4">
-        <v>1119110</v>
-      </c>
-      <c r="P2" s="6">
-        <v>9317</v>
+        <v>1118483</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2013</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -14944,19 +14937,19 @@
         <v>205274</v>
       </c>
       <c r="L3" s="4">
-        <v>489169</v>
+        <v>492255</v>
       </c>
       <c r="M3" s="4">
-        <v>485775</v>
+        <v>501460</v>
       </c>
       <c r="N3" s="4">
-        <v>940</v>
+        <v>1021</v>
       </c>
       <c r="O3" s="4">
-        <v>975884</v>
-      </c>
-      <c r="P3" s="6">
-        <v>3719</v>
+        <v>994736</v>
+      </c>
+      <c r="P3" s="5">
+        <v>2974</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -14995,19 +14988,19 @@
         <v>158363</v>
       </c>
       <c r="L4" s="4">
-        <v>478886</v>
+        <v>425342</v>
       </c>
       <c r="M4" s="4">
-        <v>508329</v>
+        <v>437773</v>
       </c>
       <c r="N4" s="4">
-        <v>2161</v>
+        <v>1833</v>
       </c>
       <c r="O4" s="4">
-        <v>989376</v>
-      </c>
-      <c r="P4" s="6">
-        <v>31339</v>
+        <v>864948</v>
+      </c>
+      <c r="P4" s="5">
+        <v>5169</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -15046,19 +15039,19 @@
         <v>126899</v>
       </c>
       <c r="L5" s="4">
-        <v>406168</v>
+        <v>414620</v>
       </c>
       <c r="M5" s="4">
-        <v>401279</v>
+        <v>408767</v>
       </c>
       <c r="N5" s="4">
-        <v>2826</v>
+        <v>2749</v>
       </c>
       <c r="O5" s="4">
-        <v>810273</v>
-      </c>
-      <c r="P5" s="6">
-        <v>7177</v>
+        <v>826136</v>
+      </c>
+      <c r="P5" s="5">
+        <v>7958</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -15097,24 +15090,25 @@
         <v>101847</v>
       </c>
       <c r="L6" s="4">
-        <v>375500</v>
+        <v>424081</v>
       </c>
       <c r="M6" s="4">
-        <v>374788</v>
+        <v>421404</v>
       </c>
       <c r="N6" s="4">
-        <v>4046</v>
+        <v>4277</v>
       </c>
       <c r="O6" s="4">
-        <v>754334</v>
-      </c>
-      <c r="P6" s="6">
-        <v>5218</v>
+        <v>849762</v>
+      </c>
+      <c r="P6" s="5">
+        <v>18091</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/eval/对比结果.xlsx
+++ b/eval/对比结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA19A7D4-D7C7-4513-857D-36CAE108EBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83549BDB-3F08-431A-80AF-C294695227F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{C34493FC-BE9F-49C2-BA2E-76C7B8EF5F42}"/>
   </bookViews>
@@ -1781,6 +1781,468 @@
       </c:ext>
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>维护时间随</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>BUFSIZE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>变化折线</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>(LRU-2)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LRU-2'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LRU-2'!$P$2:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3FC-4290-AD51-0E156F8F3312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1486998687"/>
+        <c:axId val="1487016159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1486998687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>BUFSIZE</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1487016159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1487016159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>维护时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486998687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6038,6 +6500,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7365,6 +7867,509 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12294,6 +13299,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>738188</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4C8150-790E-4B25-A880-40D539038626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14022,6 +15063,292 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride6.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2D5434-3EF7-482C-9BD4-D23A73D587F6}">
   <dimension ref="A1:P17"/>
@@ -14781,7 +16108,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="P2" sqref="P2:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
